--- a/Code/Results/Cases/Case_4_105/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_105/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9935749351713707</v>
+        <v>1.060575180405114</v>
       </c>
       <c r="D2">
-        <v>1.012834288145148</v>
+        <v>1.059159839341727</v>
       </c>
       <c r="E2">
-        <v>1.001794538173101</v>
+        <v>1.064270884879515</v>
       </c>
       <c r="F2">
-        <v>1.012884467938838</v>
+        <v>1.068675108853807</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038874459710804</v>
+        <v>1.040471598234718</v>
       </c>
       <c r="J2">
-        <v>1.015949531929964</v>
+        <v>1.065555321121076</v>
       </c>
       <c r="K2">
-        <v>1.024117670379719</v>
+        <v>1.061890102576414</v>
       </c>
       <c r="L2">
-        <v>1.013228928717186</v>
+        <v>1.066987273511069</v>
       </c>
       <c r="M2">
-        <v>1.024167173234024</v>
+        <v>1.071379656788373</v>
       </c>
       <c r="N2">
-        <v>1.017392296796344</v>
+        <v>1.067068531897971</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.004432294695309</v>
+        <v>1.062570914073163</v>
       </c>
       <c r="D3">
-        <v>1.02112112013788</v>
+        <v>1.060680131262395</v>
       </c>
       <c r="E3">
-        <v>1.012102920885673</v>
+        <v>1.066219105108157</v>
       </c>
       <c r="F3">
-        <v>1.022351494495578</v>
+        <v>1.070455424447177</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041989645837554</v>
+        <v>1.040928466747826</v>
       </c>
       <c r="J3">
-        <v>1.024802855854524</v>
+        <v>1.067199763563828</v>
       </c>
       <c r="K3">
-        <v>1.031490700696697</v>
+        <v>1.063222782717542</v>
       </c>
       <c r="L3">
-        <v>1.022583249707285</v>
+        <v>1.068747830242324</v>
       </c>
       <c r="M3">
-        <v>1.03270615355025</v>
+        <v>1.07297360315938</v>
       </c>
       <c r="N3">
-        <v>1.026258193456368</v>
+        <v>1.068715309637612</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.011167983619181</v>
+        <v>1.063858037923618</v>
       </c>
       <c r="D4">
-        <v>1.026264807250545</v>
+        <v>1.061659937631226</v>
       </c>
       <c r="E4">
-        <v>1.018504951322128</v>
+        <v>1.067475868775574</v>
       </c>
       <c r="F4">
-        <v>1.028232745796001</v>
+        <v>1.071603648083809</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043906707090614</v>
+        <v>1.041220975459779</v>
       </c>
       <c r="J4">
-        <v>1.030290262169535</v>
+        <v>1.068259378602209</v>
       </c>
       <c r="K4">
-        <v>1.036056245857236</v>
+        <v>1.064080697198362</v>
       </c>
       <c r="L4">
-        <v>1.028385052420463</v>
+        <v>1.069882756359328</v>
       </c>
       <c r="M4">
-        <v>1.038001961252177</v>
+        <v>1.07400078825747</v>
       </c>
       <c r="N4">
-        <v>1.03175339251776</v>
+        <v>1.069776429450888</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.013935796228037</v>
+        <v>1.064398150960647</v>
       </c>
       <c r="D5">
-        <v>1.028378856181947</v>
+        <v>1.062070925618544</v>
       </c>
       <c r="E5">
-        <v>1.021137189878061</v>
+        <v>1.068003308846263</v>
       </c>
       <c r="F5">
-        <v>1.030651177875114</v>
+        <v>1.072085480691203</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04469061601219</v>
+        <v>1.041343206471044</v>
       </c>
       <c r="J5">
-        <v>1.032543812627676</v>
+        <v>1.068703795051201</v>
       </c>
       <c r="K5">
-        <v>1.037930100107279</v>
+        <v>1.064440322483965</v>
       </c>
       <c r="L5">
-        <v>1.030768651860946</v>
+        <v>1.070358877060199</v>
       </c>
       <c r="M5">
-        <v>1.040177535930167</v>
+        <v>1.074431628445848</v>
       </c>
       <c r="N5">
-        <v>1.034010143276038</v>
+        <v>1.070221477022212</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.014396925743878</v>
+        <v>1.064488780716299</v>
       </c>
       <c r="D6">
-        <v>1.028731084189684</v>
+        <v>1.062139878695019</v>
       </c>
       <c r="E6">
-        <v>1.021575818894708</v>
+        <v>1.068091816015396</v>
       </c>
       <c r="F6">
-        <v>1.031054194533477</v>
+        <v>1.07216633142947</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044820989141178</v>
+        <v>1.041363686403479</v>
       </c>
       <c r="J6">
-        <v>1.032919182961786</v>
+        <v>1.068778353769565</v>
       </c>
       <c r="K6">
-        <v>1.038242158011405</v>
+        <v>1.064500644510073</v>
       </c>
       <c r="L6">
-        <v>1.031165739332317</v>
+        <v>1.070438761640625</v>
       </c>
       <c r="M6">
-        <v>1.040539957896863</v>
+        <v>1.074503910974244</v>
       </c>
       <c r="N6">
-        <v>1.034386046679078</v>
+        <v>1.070296141622508</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.011205211485632</v>
+        <v>1.063865258813788</v>
       </c>
       <c r="D7">
-        <v>1.026293240439452</v>
+        <v>1.061665432875193</v>
       </c>
       <c r="E7">
-        <v>1.018540349758907</v>
+        <v>1.067482919975552</v>
       </c>
       <c r="F7">
-        <v>1.028265267833175</v>
+        <v>1.071610089788512</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043917266290335</v>
+        <v>1.041222611614317</v>
       </c>
       <c r="J7">
-        <v>1.030320578449634</v>
+        <v>1.068265320999163</v>
       </c>
       <c r="K7">
-        <v>1.036081458690218</v>
+        <v>1.064085506601682</v>
       </c>
       <c r="L7">
-        <v>1.028417114495871</v>
+        <v>1.069889122217857</v>
       </c>
       <c r="M7">
-        <v>1.038031225817988</v>
+        <v>1.074006549024302</v>
       </c>
       <c r="N7">
-        <v>1.031783751850455</v>
+        <v>1.069782380286726</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.997307764613185</v>
+        <v>1.061250541981339</v>
       </c>
       <c r="D8">
-        <v>1.015682626955134</v>
+        <v>1.05967445183397</v>
       </c>
       <c r="E8">
-        <v>1.005337070172318</v>
+        <v>1.064930108597146</v>
       </c>
       <c r="F8">
-        <v>1.016137423798208</v>
+        <v>1.069277565064015</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039948710561129</v>
+        <v>1.040626648024773</v>
       </c>
       <c r="J8">
-        <v>1.01899435217993</v>
+        <v>1.066112001137761</v>
       </c>
       <c r="K8">
-        <v>1.026654276059606</v>
+        <v>1.062341412601073</v>
       </c>
       <c r="L8">
-        <v>1.016445229536483</v>
+        <v>1.067583158781484</v>
       </c>
       <c r="M8">
-        <v>1.027103151707369</v>
+        <v>1.071919220078172</v>
       </c>
       <c r="N8">
-        <v>1.020441441040311</v>
+        <v>1.067626002464133</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.970307799898926</v>
+        <v>1.056609472365662</v>
       </c>
       <c r="D9">
-        <v>0.9951038976107571</v>
+        <v>1.056135272804645</v>
       </c>
       <c r="E9">
-        <v>0.9797507072367961</v>
+        <v>1.060401135392446</v>
       </c>
       <c r="F9">
-        <v>0.9926555310227445</v>
+        <v>1.065137685389502</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032115339777651</v>
+        <v>1.039552337097744</v>
       </c>
       <c r="J9">
-        <v>0.9969544681750048</v>
+        <v>1.062282622584394</v>
       </c>
       <c r="K9">
-        <v>1.008276913291171</v>
+        <v>1.059233536083131</v>
       </c>
       <c r="L9">
-        <v>0.9931810869692407</v>
+        <v>1.0634861155625</v>
       </c>
       <c r="M9">
-        <v>1.005868901728079</v>
+        <v>1.06820805288259</v>
       </c>
       <c r="N9">
-        <v>0.9983702578720891</v>
+        <v>1.063791185753983</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9501189020145054</v>
+        <v>1.053491340635066</v>
       </c>
       <c r="D10">
-        <v>0.979763605145348</v>
+        <v>1.053754028223525</v>
       </c>
       <c r="E10">
-        <v>0.9606764094394281</v>
+        <v>1.057359855429573</v>
       </c>
       <c r="F10">
-        <v>0.9751744341154099</v>
+        <v>1.062356577441896</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.026183753864816</v>
+        <v>1.038819494107827</v>
       </c>
       <c r="J10">
-        <v>0.9804615656620023</v>
+        <v>1.059704965840331</v>
       </c>
       <c r="K10">
-        <v>0.9945081060040308</v>
+        <v>1.057137370370579</v>
       </c>
       <c r="L10">
-        <v>0.9757939139987718</v>
+        <v>1.060730834348847</v>
       </c>
       <c r="M10">
-        <v>0.9900068705652746</v>
+        <v>1.065710576666895</v>
       </c>
       <c r="N10">
-        <v>0.981853933545756</v>
+        <v>1.061209868441683</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9407086871150054</v>
+        <v>1.052135107891445</v>
       </c>
       <c r="D11">
-        <v>0.9726312174878706</v>
+        <v>1.052717513258101</v>
       </c>
       <c r="E11">
-        <v>0.9518031828707287</v>
+        <v>1.056037424910571</v>
       </c>
       <c r="F11">
-        <v>0.9670511737928389</v>
+        <v>1.061147023610321</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.023404394696389</v>
+        <v>1.038498128988422</v>
       </c>
       <c r="J11">
-        <v>0.9727744285997806</v>
+        <v>1.058582666934049</v>
       </c>
       <c r="K11">
-        <v>0.9880884082386605</v>
+        <v>1.056223728839274</v>
       </c>
       <c r="L11">
-        <v>0.9676950915163385</v>
+        <v>1.05953180194891</v>
       </c>
       <c r="M11">
-        <v>0.9826224065387891</v>
+        <v>1.064623339755092</v>
       </c>
       <c r="N11">
-        <v>0.9741558798671789</v>
+        <v>1.060085975742224</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9370963569264763</v>
+        <v>1.051630403049718</v>
       </c>
       <c r="D12">
-        <v>0.9698966770241854</v>
+        <v>1.0523316701694</v>
       </c>
       <c r="E12">
-        <v>0.9484000155886889</v>
+        <v>1.055545356439482</v>
       </c>
       <c r="F12">
-        <v>0.9639372951750697</v>
+        <v>1.060696918726071</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.022335612730451</v>
+        <v>1.03837814494299</v>
       </c>
       <c r="J12">
-        <v>0.9698239654370108</v>
+        <v>1.058164846108527</v>
       </c>
       <c r="K12">
-        <v>0.9856242633599376</v>
+        <v>1.055883442320573</v>
       </c>
       <c r="L12">
-        <v>0.9645873756838508</v>
+        <v>1.059085504558988</v>
       </c>
       <c r="M12">
-        <v>0.9797896229355653</v>
+        <v>1.06421859558434</v>
       </c>
       <c r="N12">
-        <v>0.971201226708295</v>
+        <v>1.059667561563206</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9378768174868376</v>
+        <v>1.051738706941064</v>
       </c>
       <c r="D13">
-        <v>0.9704873212862346</v>
+        <v>1.052414472959214</v>
       </c>
       <c r="E13">
-        <v>0.9491351418094299</v>
+        <v>1.05565094610359</v>
       </c>
       <c r="F13">
-        <v>0.9646098510242032</v>
+        <v>1.060793505372922</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.022566605665836</v>
+        <v>1.038403909873645</v>
       </c>
       <c r="J13">
-        <v>0.9704614006450244</v>
+        <v>1.058254513430569</v>
       </c>
       <c r="K13">
-        <v>0.9861566347845061</v>
+        <v>1.055956476857787</v>
       </c>
       <c r="L13">
-        <v>0.965258750652953</v>
+        <v>1.059181279059021</v>
       </c>
       <c r="M13">
-        <v>0.9804015621806267</v>
+        <v>1.064305455493884</v>
       </c>
       <c r="N13">
-        <v>0.9718395671474187</v>
+        <v>1.05975735622313</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9404125870891767</v>
+        <v>1.052093408168909</v>
       </c>
       <c r="D14">
-        <v>0.9724069961625144</v>
+        <v>1.052685636509693</v>
       </c>
       <c r="E14">
-        <v>0.9515241640574612</v>
+        <v>1.055996768056872</v>
       </c>
       <c r="F14">
-        <v>0.9667958376846858</v>
+        <v>1.061109834724461</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02331682281662</v>
+        <v>1.038488223656132</v>
       </c>
       <c r="J14">
-        <v>0.9725325703493112</v>
+        <v>1.058548149235078</v>
       </c>
       <c r="K14">
-        <v>0.9878864167229707</v>
+        <v>1.056195619519764</v>
       </c>
       <c r="L14">
-        <v>0.967440327531323</v>
+        <v>1.059494929851734</v>
       </c>
       <c r="M14">
-        <v>0.9823901630245272</v>
+        <v>1.064589901885183</v>
       </c>
       <c r="N14">
-        <v>0.9739136781502521</v>
+        <v>1.060051409024162</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9419588959137505</v>
+        <v>1.052311825919181</v>
       </c>
       <c r="D15">
-        <v>0.9735780779808336</v>
+        <v>1.052852598008412</v>
       </c>
       <c r="E15">
-        <v>0.9529813954074676</v>
+        <v>1.056209725745203</v>
       </c>
       <c r="F15">
-        <v>0.9681294502931708</v>
+        <v>1.061304625930419</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.023774072201138</v>
+        <v>1.038540090464642</v>
       </c>
       <c r="J15">
-        <v>0.9737956344994039</v>
+        <v>1.058728941461393</v>
       </c>
       <c r="K15">
-        <v>0.9889412787632053</v>
+        <v>1.05634284078454</v>
       </c>
       <c r="L15">
-        <v>0.9687708203424443</v>
+        <v>1.059688057337462</v>
       </c>
       <c r="M15">
-        <v>0.9836030781244934</v>
+        <v>1.064765039287889</v>
       </c>
       <c r="N15">
-        <v>0.9751785359963135</v>
+        <v>1.060232457996175</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9507280226922123</v>
+        <v>1.053581219168998</v>
       </c>
       <c r="D16">
-        <v>0.9802257030211259</v>
+        <v>1.053822702327823</v>
       </c>
       <c r="E16">
-        <v>0.9612511593538414</v>
+        <v>1.057447501838316</v>
       </c>
       <c r="F16">
-        <v>0.9757008120499712</v>
+        <v>1.062436737500034</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.026363388941003</v>
+        <v>1.038840736280068</v>
       </c>
       <c r="J16">
-        <v>0.9809591880196471</v>
+        <v>1.059779317363166</v>
       </c>
       <c r="K16">
-        <v>0.9949236505324041</v>
+        <v>1.057197877911507</v>
       </c>
       <c r="L16">
-        <v>0.9763182904662417</v>
+        <v>1.060810282089034</v>
       </c>
       <c r="M16">
-        <v>0.9904850924566182</v>
+        <v>1.065782608600403</v>
       </c>
       <c r="N16">
-        <v>0.9823522625842266</v>
+        <v>1.061284325552209</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9560392419219688</v>
+        <v>1.054375832941446</v>
       </c>
       <c r="D17">
-        <v>0.9842570083693559</v>
+        <v>1.05442975727482</v>
       </c>
       <c r="E17">
-        <v>0.9662646599486246</v>
+        <v>1.058222424838713</v>
       </c>
       <c r="F17">
-        <v>0.980293378653523</v>
+        <v>1.063145441095582</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.027928126541914</v>
+        <v>1.039028236507093</v>
       </c>
       <c r="J17">
-        <v>0.9852982724611077</v>
+        <v>1.060436525240611</v>
       </c>
       <c r="K17">
-        <v>0.9985468171002363</v>
+        <v>1.057732603115165</v>
       </c>
       <c r="L17">
-        <v>0.9808912286441981</v>
+        <v>1.061512605930298</v>
       </c>
       <c r="M17">
-        <v>0.9946559902550069</v>
+        <v>1.066419330728364</v>
       </c>
       <c r="N17">
-        <v>0.986697509023294</v>
+        <v>1.061942466740222</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9590740062459202</v>
+        <v>1.05483873487956</v>
       </c>
       <c r="D18">
-        <v>0.9865620411001293</v>
+        <v>1.054783320599357</v>
       </c>
       <c r="E18">
-        <v>0.9691308931652455</v>
+        <v>1.058673892001311</v>
       </c>
       <c r="F18">
-        <v>0.9829197534453504</v>
+        <v>1.063558304666727</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.028820827635299</v>
+        <v>1.039137213024627</v>
       </c>
       <c r="J18">
-        <v>0.9877775757053439</v>
+        <v>1.060819271105819</v>
       </c>
       <c r="K18">
-        <v>1.000616834078195</v>
+        <v>1.058043922878632</v>
       </c>
       <c r="L18">
-        <v>0.9835046265533554</v>
+        <v>1.061921684535945</v>
       </c>
       <c r="M18">
-        <v>0.9970399745296783</v>
+        <v>1.066790160623862</v>
       </c>
       <c r="N18">
-        <v>0.9891803331625173</v>
+        <v>1.06232575614846</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9600985067444813</v>
+        <v>1.05499647449097</v>
       </c>
       <c r="D19">
-        <v>0.9873404451481328</v>
+        <v>1.054903788720072</v>
       </c>
       <c r="E19">
-        <v>0.9700987574804038</v>
+        <v>1.058827741162726</v>
       </c>
       <c r="F19">
-        <v>0.9838067485434853</v>
+        <v>1.063698994483183</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.02912195185973</v>
+        <v>1.039174305423574</v>
       </c>
       <c r="J19">
-        <v>0.9886145503753488</v>
+        <v>1.060949677802285</v>
       </c>
       <c r="K19">
-        <v>1.001315598026523</v>
+        <v>1.058149977698471</v>
       </c>
       <c r="L19">
-        <v>0.9843869500675108</v>
+        <v>1.062061072998354</v>
       </c>
       <c r="M19">
-        <v>0.9978448980206257</v>
+        <v>1.066916509838716</v>
       </c>
       <c r="N19">
-        <v>0.9900184964325557</v>
+        <v>1.062456348037393</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9554760405006371</v>
+        <v>1.054290638897614</v>
       </c>
       <c r="D20">
-        <v>0.9838293581652204</v>
+        <v>1.054364680121804</v>
       </c>
       <c r="E20">
-        <v>0.9657328611704106</v>
+        <v>1.058139338189619</v>
       </c>
       <c r="F20">
-        <v>0.9798061452666758</v>
+        <v>1.063069456961043</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.027762342606861</v>
+        <v>1.039008159819961</v>
       </c>
       <c r="J20">
-        <v>0.9848381533511639</v>
+        <v>1.060366074500275</v>
       </c>
       <c r="K20">
-        <v>0.9981626359990283</v>
+        <v>1.057675291923502</v>
       </c>
       <c r="L20">
-        <v>0.9804062622625084</v>
+        <v>1.061437312887053</v>
       </c>
       <c r="M20">
-        <v>0.9942136230091981</v>
+        <v>1.066351074488782</v>
       </c>
       <c r="N20">
-        <v>0.9862367364914376</v>
+        <v>1.061871915951754</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9396692482745485</v>
+        <v>1.051988983670931</v>
       </c>
       <c r="D21">
-        <v>0.9718441609280851</v>
+        <v>1.052605808830107</v>
       </c>
       <c r="E21">
-        <v>0.9508237564793803</v>
+        <v>1.055894956040634</v>
       </c>
       <c r="F21">
-        <v>0.9661549073860655</v>
+        <v>1.061016706521608</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.023096951070475</v>
+        <v>1.038463412382102</v>
       </c>
       <c r="J21">
-        <v>0.9719254099885036</v>
+        <v>1.058461707202751</v>
       </c>
       <c r="K21">
-        <v>0.9873793360488065</v>
+        <v>1.056125223505593</v>
       </c>
       <c r="L21">
-        <v>0.9668007807779528</v>
+        <v>1.059402593205556</v>
       </c>
       <c r="M21">
-        <v>0.9818071644328658</v>
+        <v>1.064506164428956</v>
       </c>
       <c r="N21">
-        <v>0.9733056555520901</v>
+        <v>1.059964844234234</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9290427070145199</v>
+        <v>1.050536390686972</v>
       </c>
       <c r="D22">
-        <v>0.9638072909333281</v>
+        <v>1.051495093374085</v>
       </c>
       <c r="E22">
-        <v>0.9408188506416746</v>
+        <v>1.054478840871351</v>
       </c>
       <c r="F22">
-        <v>0.9570040755143578</v>
+        <v>1.059721288553989</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.019949758576621</v>
+        <v>1.038117347411755</v>
       </c>
       <c r="J22">
-        <v>0.9632472236990578</v>
+        <v>1.057258852846637</v>
       </c>
       <c r="K22">
-        <v>0.9801315230035151</v>
+        <v>1.055145304756588</v>
       </c>
       <c r="L22">
-        <v>0.9576615065344917</v>
+        <v>1.058117929037968</v>
       </c>
       <c r="M22">
-        <v>0.9734782760861947</v>
+        <v>1.06334100099294</v>
       </c>
       <c r="N22">
-        <v>0.9646151452427116</v>
+        <v>1.058760281686965</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9347479515365581</v>
+        <v>1.051306964194055</v>
       </c>
       <c r="D23">
-        <v>0.9681199901968175</v>
+        <v>1.052084370807965</v>
       </c>
       <c r="E23">
-        <v>0.9461885015691344</v>
+        <v>1.055230031814135</v>
       </c>
       <c r="F23">
-        <v>0.9619142863736629</v>
+        <v>1.060408474626897</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.021640312114108</v>
+        <v>1.038301143168503</v>
       </c>
       <c r="J23">
-        <v>0.9679060190643509</v>
+        <v>1.057897038461093</v>
       </c>
       <c r="K23">
-        <v>0.9840224331122913</v>
+        <v>1.05566529004497</v>
       </c>
       <c r="L23">
-        <v>0.9625674201809925</v>
+        <v>1.058799469977344</v>
       </c>
       <c r="M23">
-        <v>0.9779486302642887</v>
+        <v>1.06395917625828</v>
       </c>
       <c r="N23">
-        <v>0.9692805566317946</v>
+        <v>1.059399373598194</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9557307210154291</v>
+        <v>1.054329136218925</v>
       </c>
       <c r="D24">
-        <v>0.9840227372974498</v>
+        <v>1.054394087297064</v>
       </c>
       <c r="E24">
-        <v>0.9659733364623634</v>
+        <v>1.058176883113958</v>
       </c>
       <c r="F24">
-        <v>0.9800264659924157</v>
+        <v>1.063103792499812</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.027837314642368</v>
+        <v>1.039017232813066</v>
       </c>
       <c r="J24">
-        <v>0.9850462199043877</v>
+        <v>1.06039790998701</v>
       </c>
       <c r="K24">
-        <v>0.9983363639663134</v>
+        <v>1.057701190164582</v>
       </c>
       <c r="L24">
-        <v>0.9806255633133669</v>
+        <v>1.061471336348356</v>
       </c>
       <c r="M24">
-        <v>0.9944136597235156</v>
+        <v>1.066381918273127</v>
       </c>
       <c r="N24">
-        <v>0.9864450985230326</v>
+        <v>1.061903796648532</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9776312706533641</v>
+        <v>1.057813434721798</v>
       </c>
       <c r="D25">
-        <v>1.000679597037574</v>
+        <v>1.057053996810798</v>
       </c>
       <c r="E25">
-        <v>0.986682171951403</v>
+        <v>1.061575751469146</v>
       </c>
       <c r="F25">
-        <v>0.9990136390676004</v>
+        <v>1.066211586301647</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034253268625772</v>
+        <v>1.039832974643169</v>
       </c>
       <c r="J25">
-        <v>1.002935615426443</v>
+        <v>1.063276877208773</v>
       </c>
       <c r="K25">
-        <v>1.013267372290115</v>
+        <v>1.060041195490947</v>
       </c>
       <c r="L25">
-        <v>0.9994908091775883</v>
+        <v>1.064549418886695</v>
       </c>
       <c r="M25">
-        <v>1.011627286340923</v>
+        <v>1.069171510779641</v>
       </c>
       <c r="N25">
-        <v>1.004359899038672</v>
+        <v>1.064786852333971</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_105/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_105/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.060575180405114</v>
+        <v>0.9935749351713689</v>
       </c>
       <c r="D2">
-        <v>1.059159839341727</v>
+        <v>1.012834288145146</v>
       </c>
       <c r="E2">
-        <v>1.064270884879515</v>
+        <v>1.001794538173099</v>
       </c>
       <c r="F2">
-        <v>1.068675108853807</v>
+        <v>1.012884467938836</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040471598234718</v>
+        <v>1.038874459710803</v>
       </c>
       <c r="J2">
-        <v>1.065555321121076</v>
+        <v>1.015949531929962</v>
       </c>
       <c r="K2">
-        <v>1.061890102576414</v>
+        <v>1.024117670379718</v>
       </c>
       <c r="L2">
-        <v>1.066987273511069</v>
+        <v>1.013228928717184</v>
       </c>
       <c r="M2">
-        <v>1.071379656788373</v>
+        <v>1.024167173234022</v>
       </c>
       <c r="N2">
-        <v>1.067068531897971</v>
+        <v>1.017392296796343</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.062570914073163</v>
+        <v>1.004432294695311</v>
       </c>
       <c r="D3">
-        <v>1.060680131262395</v>
+        <v>1.021121120137881</v>
       </c>
       <c r="E3">
-        <v>1.066219105108157</v>
+        <v>1.012102920885675</v>
       </c>
       <c r="F3">
-        <v>1.070455424447177</v>
+        <v>1.02235149449558</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040928466747826</v>
+        <v>1.041989645837555</v>
       </c>
       <c r="J3">
-        <v>1.067199763563828</v>
+        <v>1.024802855854526</v>
       </c>
       <c r="K3">
-        <v>1.063222782717542</v>
+        <v>1.031490700696699</v>
       </c>
       <c r="L3">
-        <v>1.068747830242324</v>
+        <v>1.022583249707286</v>
       </c>
       <c r="M3">
-        <v>1.07297360315938</v>
+        <v>1.032706153550252</v>
       </c>
       <c r="N3">
-        <v>1.068715309637612</v>
+        <v>1.026258193456369</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.063858037923618</v>
+        <v>1.01116798361918</v>
       </c>
       <c r="D4">
-        <v>1.061659937631226</v>
+        <v>1.026264807250544</v>
       </c>
       <c r="E4">
-        <v>1.067475868775574</v>
+        <v>1.018504951322127</v>
       </c>
       <c r="F4">
-        <v>1.071603648083809</v>
+        <v>1.028232745796001</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041220975459779</v>
+        <v>1.043906707090613</v>
       </c>
       <c r="J4">
-        <v>1.068259378602209</v>
+        <v>1.030290262169533</v>
       </c>
       <c r="K4">
-        <v>1.064080697198362</v>
+        <v>1.036056245857235</v>
       </c>
       <c r="L4">
-        <v>1.069882756359328</v>
+        <v>1.028385052420462</v>
       </c>
       <c r="M4">
-        <v>1.07400078825747</v>
+        <v>1.038001961252176</v>
       </c>
       <c r="N4">
-        <v>1.069776429450888</v>
+        <v>1.031753392517759</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.064398150960647</v>
+        <v>1.013935796228039</v>
       </c>
       <c r="D5">
-        <v>1.062070925618544</v>
+        <v>1.028378856181949</v>
       </c>
       <c r="E5">
-        <v>1.068003308846263</v>
+        <v>1.021137189878062</v>
       </c>
       <c r="F5">
-        <v>1.072085480691203</v>
+        <v>1.030651177875116</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041343206471044</v>
+        <v>1.04469061601219</v>
       </c>
       <c r="J5">
-        <v>1.068703795051201</v>
+        <v>1.032543812627677</v>
       </c>
       <c r="K5">
-        <v>1.064440322483965</v>
+        <v>1.03793010010728</v>
       </c>
       <c r="L5">
-        <v>1.070358877060199</v>
+        <v>1.030768651860947</v>
       </c>
       <c r="M5">
-        <v>1.074431628445848</v>
+        <v>1.040177535930169</v>
       </c>
       <c r="N5">
-        <v>1.070221477022212</v>
+        <v>1.034010143276039</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.064488780716299</v>
+        <v>1.014396925743876</v>
       </c>
       <c r="D6">
-        <v>1.062139878695019</v>
+        <v>1.028731084189682</v>
       </c>
       <c r="E6">
-        <v>1.068091816015396</v>
+        <v>1.021575818894706</v>
       </c>
       <c r="F6">
-        <v>1.07216633142947</v>
+        <v>1.031054194533476</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041363686403479</v>
+        <v>1.044820989141177</v>
       </c>
       <c r="J6">
-        <v>1.068778353769565</v>
+        <v>1.032919182961784</v>
       </c>
       <c r="K6">
-        <v>1.064500644510073</v>
+        <v>1.038242158011403</v>
       </c>
       <c r="L6">
-        <v>1.070438761640625</v>
+        <v>1.031165739332315</v>
       </c>
       <c r="M6">
-        <v>1.074503910974244</v>
+        <v>1.040539957896861</v>
       </c>
       <c r="N6">
-        <v>1.070296141622508</v>
+        <v>1.034386046679076</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.063865258813788</v>
+        <v>1.011205211485631</v>
       </c>
       <c r="D7">
-        <v>1.061665432875193</v>
+        <v>1.026293240439451</v>
       </c>
       <c r="E7">
-        <v>1.067482919975552</v>
+        <v>1.018540349758906</v>
       </c>
       <c r="F7">
-        <v>1.071610089788512</v>
+        <v>1.028265267833174</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041222611614317</v>
+        <v>1.043917266290335</v>
       </c>
       <c r="J7">
-        <v>1.068265320999163</v>
+        <v>1.030320578449633</v>
       </c>
       <c r="K7">
-        <v>1.064085506601682</v>
+        <v>1.036081458690217</v>
       </c>
       <c r="L7">
-        <v>1.069889122217857</v>
+        <v>1.02841711449587</v>
       </c>
       <c r="M7">
-        <v>1.074006549024302</v>
+        <v>1.038031225817988</v>
       </c>
       <c r="N7">
-        <v>1.069782380286726</v>
+        <v>1.031783751850454</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.061250541981339</v>
+        <v>0.9973077646131835</v>
       </c>
       <c r="D8">
-        <v>1.05967445183397</v>
+        <v>1.015682626955132</v>
       </c>
       <c r="E8">
-        <v>1.064930108597146</v>
+        <v>1.005337070172316</v>
       </c>
       <c r="F8">
-        <v>1.069277565064015</v>
+        <v>1.016137423798206</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040626648024773</v>
+        <v>1.039948710561128</v>
       </c>
       <c r="J8">
-        <v>1.066112001137761</v>
+        <v>1.018994352179928</v>
       </c>
       <c r="K8">
-        <v>1.062341412601073</v>
+        <v>1.026654276059605</v>
       </c>
       <c r="L8">
-        <v>1.067583158781484</v>
+        <v>1.016445229536481</v>
       </c>
       <c r="M8">
-        <v>1.071919220078172</v>
+        <v>1.027103151707368</v>
       </c>
       <c r="N8">
-        <v>1.067626002464133</v>
+        <v>1.020441441040309</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.056609472365662</v>
+        <v>0.9703077998989257</v>
       </c>
       <c r="D9">
-        <v>1.056135272804645</v>
+        <v>0.9951038976107571</v>
       </c>
       <c r="E9">
-        <v>1.060401135392446</v>
+        <v>0.9797507072367959</v>
       </c>
       <c r="F9">
-        <v>1.065137685389502</v>
+        <v>0.9926555310227446</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039552337097744</v>
+        <v>1.032115339777651</v>
       </c>
       <c r="J9">
-        <v>1.062282622584394</v>
+        <v>0.9969544681750047</v>
       </c>
       <c r="K9">
-        <v>1.059233536083131</v>
+        <v>1.008276913291171</v>
       </c>
       <c r="L9">
-        <v>1.0634861155625</v>
+        <v>0.9931810869692405</v>
       </c>
       <c r="M9">
-        <v>1.06820805288259</v>
+        <v>1.005868901728079</v>
       </c>
       <c r="N9">
-        <v>1.063791185753983</v>
+        <v>0.9983702578720889</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.053491340635066</v>
+        <v>0.9501189020145072</v>
       </c>
       <c r="D10">
-        <v>1.053754028223525</v>
+        <v>0.9797636051453493</v>
       </c>
       <c r="E10">
-        <v>1.057359855429573</v>
+        <v>0.96067640943943</v>
       </c>
       <c r="F10">
-        <v>1.062356577441896</v>
+        <v>0.9751744341154118</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038819494107827</v>
+        <v>1.026183753864818</v>
       </c>
       <c r="J10">
-        <v>1.059704965840331</v>
+        <v>0.9804615656620042</v>
       </c>
       <c r="K10">
-        <v>1.057137370370579</v>
+        <v>0.9945081060040321</v>
       </c>
       <c r="L10">
-        <v>1.060730834348847</v>
+        <v>0.9757939139987738</v>
       </c>
       <c r="M10">
-        <v>1.065710576666895</v>
+        <v>0.9900068705652761</v>
       </c>
       <c r="N10">
-        <v>1.061209868441683</v>
+        <v>0.9818539335457577</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.052135107891445</v>
+        <v>0.9407086871150068</v>
       </c>
       <c r="D11">
-        <v>1.052717513258101</v>
+        <v>0.9726312174878715</v>
       </c>
       <c r="E11">
-        <v>1.056037424910571</v>
+        <v>0.95180318287073</v>
       </c>
       <c r="F11">
-        <v>1.061147023610321</v>
+        <v>0.96705117379284</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038498128988422</v>
+        <v>1.023404394696389</v>
       </c>
       <c r="J11">
-        <v>1.058582666934049</v>
+        <v>0.972774428599782</v>
       </c>
       <c r="K11">
-        <v>1.056223728839274</v>
+        <v>0.9880884082386615</v>
       </c>
       <c r="L11">
-        <v>1.05953180194891</v>
+        <v>0.9676950915163399</v>
       </c>
       <c r="M11">
-        <v>1.064623339755092</v>
+        <v>0.9826224065387898</v>
       </c>
       <c r="N11">
-        <v>1.060085975742224</v>
+        <v>0.9741558798671802</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.051630403049718</v>
+        <v>0.9370963569264736</v>
       </c>
       <c r="D12">
-        <v>1.0523316701694</v>
+        <v>0.9698966770241835</v>
       </c>
       <c r="E12">
-        <v>1.055545356439482</v>
+        <v>0.9484000155886868</v>
       </c>
       <c r="F12">
-        <v>1.060696918726071</v>
+        <v>0.9639372951750678</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.03837814494299</v>
+        <v>1.02233561273045</v>
       </c>
       <c r="J12">
-        <v>1.058164846108527</v>
+        <v>0.9698239654370084</v>
       </c>
       <c r="K12">
-        <v>1.055883442320573</v>
+        <v>0.9856242633599357</v>
       </c>
       <c r="L12">
-        <v>1.059085504558988</v>
+        <v>0.9645873756838483</v>
       </c>
       <c r="M12">
-        <v>1.06421859558434</v>
+        <v>0.9797896229355634</v>
       </c>
       <c r="N12">
-        <v>1.059667561563206</v>
+        <v>0.9712012267082928</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.051738706941064</v>
+        <v>0.9378768174868359</v>
       </c>
       <c r="D13">
-        <v>1.052414472959214</v>
+        <v>0.9704873212862338</v>
       </c>
       <c r="E13">
-        <v>1.05565094610359</v>
+        <v>0.9491351418094284</v>
       </c>
       <c r="F13">
-        <v>1.060793505372922</v>
+        <v>0.9646098510242026</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038403909873645</v>
+        <v>1.022566605665835</v>
       </c>
       <c r="J13">
-        <v>1.058254513430569</v>
+        <v>0.970461400645023</v>
       </c>
       <c r="K13">
-        <v>1.055956476857787</v>
+        <v>0.9861566347845052</v>
       </c>
       <c r="L13">
-        <v>1.059181279059021</v>
+        <v>0.9652587506529513</v>
       </c>
       <c r="M13">
-        <v>1.064305455493884</v>
+        <v>0.9804015621806259</v>
       </c>
       <c r="N13">
-        <v>1.05975735622313</v>
+        <v>0.9718395671474171</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.052093408168909</v>
+        <v>0.9404125870891771</v>
       </c>
       <c r="D14">
-        <v>1.052685636509693</v>
+        <v>0.9724069961625145</v>
       </c>
       <c r="E14">
-        <v>1.055996768056872</v>
+        <v>0.9515241640574618</v>
       </c>
       <c r="F14">
-        <v>1.061109834724461</v>
+        <v>0.9667958376846858</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038488223656132</v>
+        <v>1.02331682281662</v>
       </c>
       <c r="J14">
-        <v>1.058548149235078</v>
+        <v>0.9725325703493114</v>
       </c>
       <c r="K14">
-        <v>1.056195619519764</v>
+        <v>0.9878864167229707</v>
       </c>
       <c r="L14">
-        <v>1.059494929851734</v>
+        <v>0.9674403275313233</v>
       </c>
       <c r="M14">
-        <v>1.064589901885183</v>
+        <v>0.9823901630245272</v>
       </c>
       <c r="N14">
-        <v>1.060051409024162</v>
+        <v>0.9739136781502524</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.052311825919181</v>
+        <v>0.9419588959137489</v>
       </c>
       <c r="D15">
-        <v>1.052852598008412</v>
+        <v>0.9735780779808322</v>
       </c>
       <c r="E15">
-        <v>1.056209725745203</v>
+        <v>0.9529813954074656</v>
       </c>
       <c r="F15">
-        <v>1.061304625930419</v>
+        <v>0.9681294502931691</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038540090464642</v>
+        <v>1.023774072201137</v>
       </c>
       <c r="J15">
-        <v>1.058728941461393</v>
+        <v>0.9737956344994021</v>
       </c>
       <c r="K15">
-        <v>1.05634284078454</v>
+        <v>0.9889412787632036</v>
       </c>
       <c r="L15">
-        <v>1.059688057337462</v>
+        <v>0.9687708203424424</v>
       </c>
       <c r="M15">
-        <v>1.064765039287889</v>
+        <v>0.9836030781244918</v>
       </c>
       <c r="N15">
-        <v>1.060232457996175</v>
+        <v>0.9751785359963118</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.053581219168998</v>
+        <v>0.950728022692208</v>
       </c>
       <c r="D16">
-        <v>1.053822702327823</v>
+        <v>0.9802257030211227</v>
       </c>
       <c r="E16">
-        <v>1.057447501838316</v>
+        <v>0.961251159353837</v>
       </c>
       <c r="F16">
-        <v>1.062436737500034</v>
+        <v>0.9757008120499676</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038840736280068</v>
+        <v>1.026363388941002</v>
       </c>
       <c r="J16">
-        <v>1.059779317363166</v>
+        <v>0.980959188019643</v>
       </c>
       <c r="K16">
-        <v>1.057197877911507</v>
+        <v>0.9949236505324008</v>
       </c>
       <c r="L16">
-        <v>1.060810282089034</v>
+        <v>0.9763182904662375</v>
       </c>
       <c r="M16">
-        <v>1.065782608600403</v>
+        <v>0.9904850924566148</v>
       </c>
       <c r="N16">
-        <v>1.061284325552209</v>
+        <v>0.9823522625842225</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.054375832941446</v>
+        <v>0.9560392419219668</v>
       </c>
       <c r="D17">
-        <v>1.05442975727482</v>
+        <v>0.9842570083693547</v>
       </c>
       <c r="E17">
-        <v>1.058222424838713</v>
+        <v>0.9662646599486227</v>
       </c>
       <c r="F17">
-        <v>1.063145441095582</v>
+        <v>0.9802933786535213</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039028236507093</v>
+        <v>1.027928126541913</v>
       </c>
       <c r="J17">
-        <v>1.060436525240611</v>
+        <v>0.9852982724611058</v>
       </c>
       <c r="K17">
-        <v>1.057732603115165</v>
+        <v>0.9985468171002352</v>
       </c>
       <c r="L17">
-        <v>1.061512605930298</v>
+        <v>0.9808912286441961</v>
       </c>
       <c r="M17">
-        <v>1.066419330728364</v>
+        <v>0.9946559902550054</v>
       </c>
       <c r="N17">
-        <v>1.061942466740222</v>
+        <v>0.986697509023292</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.05483873487956</v>
+        <v>0.9590740062459209</v>
       </c>
       <c r="D18">
-        <v>1.054783320599357</v>
+        <v>0.9865620411001298</v>
       </c>
       <c r="E18">
-        <v>1.058673892001311</v>
+        <v>0.9691308931652464</v>
       </c>
       <c r="F18">
-        <v>1.063558304666727</v>
+        <v>0.982919753445351</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039137213024627</v>
+        <v>1.028820827635299</v>
       </c>
       <c r="J18">
-        <v>1.060819271105819</v>
+        <v>0.9877775757053446</v>
       </c>
       <c r="K18">
-        <v>1.058043922878632</v>
+        <v>1.000616834078196</v>
       </c>
       <c r="L18">
-        <v>1.061921684535945</v>
+        <v>0.9835046265533561</v>
       </c>
       <c r="M18">
-        <v>1.066790160623862</v>
+        <v>0.9970399745296789</v>
       </c>
       <c r="N18">
-        <v>1.06232575614846</v>
+        <v>0.9891803331625179</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.05499647449097</v>
+        <v>0.9600985067444807</v>
       </c>
       <c r="D19">
-        <v>1.054903788720072</v>
+        <v>0.9873404451481326</v>
       </c>
       <c r="E19">
-        <v>1.058827741162726</v>
+        <v>0.9700987574804033</v>
       </c>
       <c r="F19">
-        <v>1.063698994483183</v>
+        <v>0.9838067485434846</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039174305423574</v>
+        <v>1.02912195185973</v>
       </c>
       <c r="J19">
-        <v>1.060949677802285</v>
+        <v>0.9886145503753482</v>
       </c>
       <c r="K19">
-        <v>1.058149977698471</v>
+        <v>1.001315598026523</v>
       </c>
       <c r="L19">
-        <v>1.062061072998354</v>
+        <v>0.9843869500675104</v>
       </c>
       <c r="M19">
-        <v>1.066916509838716</v>
+        <v>0.997844898020625</v>
       </c>
       <c r="N19">
-        <v>1.062456348037393</v>
+        <v>0.990018496432555</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.054290638897614</v>
+        <v>0.9554760405006346</v>
       </c>
       <c r="D20">
-        <v>1.054364680121804</v>
+        <v>0.9838293581652188</v>
       </c>
       <c r="E20">
-        <v>1.058139338189619</v>
+        <v>0.9657328611704081</v>
       </c>
       <c r="F20">
-        <v>1.063069456961043</v>
+        <v>0.9798061452666738</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039008159819961</v>
+        <v>1.02776234260686</v>
       </c>
       <c r="J20">
-        <v>1.060366074500275</v>
+        <v>0.9848381533511618</v>
       </c>
       <c r="K20">
-        <v>1.057675291923502</v>
+        <v>0.9981626359990265</v>
       </c>
       <c r="L20">
-        <v>1.061437312887053</v>
+        <v>0.980406262262506</v>
       </c>
       <c r="M20">
-        <v>1.066351074488782</v>
+        <v>0.9942136230091964</v>
       </c>
       <c r="N20">
-        <v>1.061871915951754</v>
+        <v>0.9862367364914353</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.051988983670931</v>
+        <v>0.9396692482745491</v>
       </c>
       <c r="D21">
-        <v>1.052605808830107</v>
+        <v>0.9718441609280856</v>
       </c>
       <c r="E21">
-        <v>1.055894956040634</v>
+        <v>0.9508237564793806</v>
       </c>
       <c r="F21">
-        <v>1.061016706521608</v>
+        <v>0.9661549073860658</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038463412382102</v>
+        <v>1.023096951070475</v>
       </c>
       <c r="J21">
-        <v>1.058461707202751</v>
+        <v>0.9719254099885042</v>
       </c>
       <c r="K21">
-        <v>1.056125223505593</v>
+        <v>0.9873793360488071</v>
       </c>
       <c r="L21">
-        <v>1.059402593205556</v>
+        <v>0.9668007807779532</v>
       </c>
       <c r="M21">
-        <v>1.064506164428956</v>
+        <v>0.9818071644328662</v>
       </c>
       <c r="N21">
-        <v>1.059964844234234</v>
+        <v>0.9733056555520905</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.050536390686972</v>
+        <v>0.9290427070145181</v>
       </c>
       <c r="D22">
-        <v>1.051495093374085</v>
+        <v>0.9638072909333267</v>
       </c>
       <c r="E22">
-        <v>1.054478840871351</v>
+        <v>0.9408188506416729</v>
       </c>
       <c r="F22">
-        <v>1.059721288553989</v>
+        <v>0.9570040755143564</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038117347411755</v>
+        <v>1.01994975857662</v>
       </c>
       <c r="J22">
-        <v>1.057258852846637</v>
+        <v>0.963247223699056</v>
       </c>
       <c r="K22">
-        <v>1.055145304756588</v>
+        <v>0.9801315230035138</v>
       </c>
       <c r="L22">
-        <v>1.058117929037968</v>
+        <v>0.9576615065344899</v>
       </c>
       <c r="M22">
-        <v>1.06334100099294</v>
+        <v>0.9734782760861933</v>
       </c>
       <c r="N22">
-        <v>1.058760281686965</v>
+        <v>0.9646151452427094</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.051306964194055</v>
+        <v>0.9347479515365573</v>
       </c>
       <c r="D23">
-        <v>1.052084370807965</v>
+        <v>0.9681199901968172</v>
       </c>
       <c r="E23">
-        <v>1.055230031814135</v>
+        <v>0.9461885015691337</v>
       </c>
       <c r="F23">
-        <v>1.060408474626897</v>
+        <v>0.9619142863736627</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038301143168503</v>
+        <v>1.021640312114107</v>
       </c>
       <c r="J23">
-        <v>1.057897038461093</v>
+        <v>0.9679060190643505</v>
       </c>
       <c r="K23">
-        <v>1.05566529004497</v>
+        <v>0.9840224331122912</v>
       </c>
       <c r="L23">
-        <v>1.058799469977344</v>
+        <v>0.962567420180992</v>
       </c>
       <c r="M23">
-        <v>1.06395917625828</v>
+        <v>0.9779486302642884</v>
       </c>
       <c r="N23">
-        <v>1.059399373598194</v>
+        <v>0.9692805566317941</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.054329136218925</v>
+        <v>0.9557307210154268</v>
       </c>
       <c r="D24">
-        <v>1.054394087297064</v>
+        <v>0.9840227372974479</v>
       </c>
       <c r="E24">
-        <v>1.058176883113958</v>
+        <v>0.9659733364623612</v>
       </c>
       <c r="F24">
-        <v>1.063103792499812</v>
+        <v>0.9800264659924136</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039017232813066</v>
+        <v>1.027837314642367</v>
       </c>
       <c r="J24">
-        <v>1.06039790998701</v>
+        <v>0.9850462199043856</v>
       </c>
       <c r="K24">
-        <v>1.057701190164582</v>
+        <v>0.9983363639663119</v>
       </c>
       <c r="L24">
-        <v>1.061471336348356</v>
+        <v>0.9806255633133645</v>
       </c>
       <c r="M24">
-        <v>1.066381918273127</v>
+        <v>0.9944136597235135</v>
       </c>
       <c r="N24">
-        <v>1.061903796648532</v>
+        <v>0.9864450985230304</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.057813434721798</v>
+        <v>0.9776312706533655</v>
       </c>
       <c r="D25">
-        <v>1.057053996810798</v>
+        <v>1.000679597037575</v>
       </c>
       <c r="E25">
-        <v>1.061575751469146</v>
+        <v>0.9866821719514041</v>
       </c>
       <c r="F25">
-        <v>1.066211586301647</v>
+        <v>0.9990136390676015</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039832974643169</v>
+        <v>1.034253268625772</v>
       </c>
       <c r="J25">
-        <v>1.063276877208773</v>
+        <v>1.002935615426445</v>
       </c>
       <c r="K25">
-        <v>1.060041195490947</v>
+        <v>1.013267372290116</v>
       </c>
       <c r="L25">
-        <v>1.064549418886695</v>
+        <v>0.9994908091775895</v>
       </c>
       <c r="M25">
-        <v>1.069171510779641</v>
+        <v>1.011627286340924</v>
       </c>
       <c r="N25">
-        <v>1.064786852333971</v>
+        <v>1.004359899038674</v>
       </c>
     </row>
   </sheetData>
